--- a/excelSheet/nhóm SVCNTS.xlsx
+++ b/excelSheet/nhóm SVCNTS.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,246 +2379,6 @@
         <v/>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n"/>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
-      <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="n"/>
-      <c r="R33" s="2" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
-      <c r="C34" s="2" t="n"/>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="n"/>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="n"/>
-      <c r="R34" s="2" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
-      <c r="C35" s="2" t="n"/>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
-      <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
-      <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="n"/>
-      <c r="R35" s="2" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
-      <c r="C36" s="2" t="n"/>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-      <c r="K36" s="2" t="n"/>
-      <c r="L36" s="2" t="n"/>
-      <c r="M36" s="2" t="n"/>
-      <c r="N36" s="2" t="n"/>
-      <c r="O36" s="2" t="n"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="n"/>
-      <c r="R36" s="2" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n"/>
-      <c r="B37" s="2" t="n"/>
-      <c r="C37" s="2" t="n"/>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
-      <c r="H37" s="2" t="n"/>
-      <c r="I37" s="2" t="n"/>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
-      <c r="L37" s="2" t="n"/>
-      <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="n"/>
-      <c r="O37" s="2" t="n"/>
-      <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="n"/>
-      <c r="R37" s="2" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n"/>
-      <c r="B38" s="2" t="n"/>
-      <c r="C38" s="2" t="n"/>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="n"/>
-      <c r="G38" s="2" t="n"/>
-      <c r="H38" s="2" t="n"/>
-      <c r="I38" s="2" t="n"/>
-      <c r="J38" s="2" t="n"/>
-      <c r="K38" s="2" t="n"/>
-      <c r="L38" s="2" t="n"/>
-      <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
-      <c r="O38" s="2" t="n"/>
-      <c r="P38" s="2" t="inlineStr"/>
-      <c r="Q38" s="2" t="n"/>
-      <c r="R38" s="2" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n"/>
-      <c r="B39" s="2" t="n"/>
-      <c r="C39" s="2" t="n"/>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
-      <c r="H39" s="2" t="n"/>
-      <c r="I39" s="2" t="n"/>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
-      <c r="L39" s="2" t="n"/>
-      <c r="M39" s="2" t="n"/>
-      <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="n"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="n"/>
-      <c r="R39" s="2" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n"/>
-      <c r="B40" s="2" t="n"/>
-      <c r="C40" s="2" t="n"/>
-      <c r="D40" s="2" t="n"/>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
-      <c r="G40" s="2" t="n"/>
-      <c r="H40" s="2" t="n"/>
-      <c r="I40" s="2" t="n"/>
-      <c r="J40" s="2" t="n"/>
-      <c r="K40" s="2" t="n"/>
-      <c r="L40" s="2" t="n"/>
-      <c r="M40" s="2" t="n"/>
-      <c r="N40" s="2" t="n"/>
-      <c r="O40" s="2" t="n"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="n"/>
-      <c r="R40" s="2" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
-      <c r="C41" s="2" t="n"/>
-      <c r="D41" s="2" t="n"/>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
-      <c r="H41" s="2" t="n"/>
-      <c r="I41" s="2" t="n"/>
-      <c r="J41" s="2" t="n"/>
-      <c r="K41" s="2" t="n"/>
-      <c r="L41" s="2" t="n"/>
-      <c r="M41" s="2" t="n"/>
-      <c r="N41" s="2" t="n"/>
-      <c r="O41" s="2" t="n"/>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="n"/>
-      <c r="R41" s="2" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
-      <c r="C42" s="2" t="n"/>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="2" t="n"/>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n"/>
-      <c r="L42" s="2" t="n"/>
-      <c r="M42" s="2" t="n"/>
-      <c r="N42" s="2" t="n"/>
-      <c r="O42" s="2" t="n"/>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="n"/>
-      <c r="R42" s="2" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
-      <c r="C43" s="2" t="n"/>
-      <c r="D43" s="2" t="n"/>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n"/>
-      <c r="K43" s="2" t="n"/>
-      <c r="L43" s="2" t="n"/>
-      <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="n"/>
-      <c r="O43" s="2" t="n"/>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="n"/>
-      <c r="R43" s="2" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n"/>
-      <c r="B44" s="2" t="n"/>
-      <c r="C44" s="2" t="n"/>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
-      <c r="L44" s="2" t="n"/>
-      <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
-      <c r="P44" s="2" t="inlineStr"/>
-      <c r="Q44" s="2" t="n"/>
-      <c r="R44" s="2" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:T1"/>
@@ -2631,20 +2391,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A23"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="P33"/>
-    <hyperlink ref="P34"/>
-    <hyperlink ref="P35"/>
-    <hyperlink ref="P36"/>
-    <hyperlink ref="P37"/>
-    <hyperlink ref="P38"/>
-    <hyperlink ref="P39"/>
-    <hyperlink ref="P40"/>
-    <hyperlink ref="P41"/>
-    <hyperlink ref="P42"/>
-    <hyperlink ref="P43"/>
-    <hyperlink ref="P44"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excelSheet/nhóm SVCNTS.xlsx
+++ b/excelSheet/nhóm SVCNTS.xlsx
@@ -47,7 +47,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -62,20 +62,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="00CCE0FF"/>
+        <bgColor rgb="00CCE0FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00365072"/>
-        <bgColor rgb="00365072"/>
+        <fgColor rgb="006699CC"/>
+        <bgColor rgb="006699CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A4C639"/>
-        <bgColor rgb="00A4C639"/>
+        <fgColor rgb="009FC9E7"/>
+        <bgColor rgb="009FC9E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0E57C"/>
+        <bgColor rgb="00B0E57C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00008000"/>
+        <bgColor rgb="00008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -105,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -116,13 +128,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -584,42 +599,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -629,17 +644,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -649,12 +664,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -664,73 +679,73 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E4" s="7" t="n"/>
-      <c r="F4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H4" s="7" t="inlineStr">
+      <c r="H4" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr">
+      <c r="I4" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J4" s="7" t="inlineStr">
+      <c r="J4" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L4" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N4" s="7" t="n">
+      <c r="L4" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N4" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="O4" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P4" s="7" t="n"/>
-      <c r="Q4" s="7" t="n"/>
-      <c r="R4" s="7" t="inlineStr">
+      <c r="O4" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P4" s="8" t="n"/>
+      <c r="Q4" s="8" t="n"/>
+      <c r="R4" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -738,247 +753,247 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="8" t="n"/>
+      <c r="G5" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H5" s="7" t="inlineStr">
+      <c r="H5" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr">
+      <c r="I5" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="J5" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K5" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N5" s="7" t="n">
+      <c r="L5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N5" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="O5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P5" s="7" t="inlineStr">
+      <c r="O5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P5" s="8" t="inlineStr">
         <is>
           <t>Estimate số ngày đi làm trong tháng 8: 16/23 ngày. (1h/ngày)*16 fix bugs</t>
         </is>
       </c>
-      <c r="Q5" s="7" t="n"/>
-      <c r="R5" s="7" t="inlineStr">
+      <c r="Q5" s="8" t="n"/>
+      <c r="R5" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K6" s="8" t="n">
+      <c r="A6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K6" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="9" t="n">
         <v>128</v>
       </c>
-      <c r="O6" s="8" t="inlineStr"/>
-      <c r="P6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R6" s="7" t="n">
+      <c r="O6" s="9" t="inlineStr"/>
+      <c r="P6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R6" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
         </is>
       </c>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H7" s="7" t="inlineStr">
+      <c r="H7" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="I7" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="J7" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L7" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M7" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N7" s="7" t="n">
+      <c r="L7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N7" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="O7" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P7" s="7" t="inlineStr">
+      <c r="O7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P7" s="8" t="inlineStr">
         <is>
           <t>"- (4h/ngày)*16 làm task
 - (0,5h/ngày)*16 meeting daily
 - Retro, review, planning: (0,5h/ngày)*16"</t>
         </is>
       </c>
-      <c r="Q7" s="7" t="n"/>
-      <c r="R7" s="7" t="inlineStr">
+      <c r="Q7" s="8" t="n"/>
+      <c r="R7" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K8" s="8" t="n">
+      <c r="A8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K8" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="9" t="n">
         <v>128</v>
       </c>
-      <c r="O8" s="8" t="inlineStr"/>
-      <c r="P8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R8" s="7" t="n">
+      <c r="O8" s="9" t="inlineStr"/>
+      <c r="P8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R8" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -1046,42 +1061,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr">
+      <c r="I11" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -1091,17 +1106,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K11" s="5" t="inlineStr">
+      <c r="K11" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L11" s="5" t="inlineStr">
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="M11" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -1111,12 +1126,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="P11" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -1126,77 +1141,77 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="R11" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo, innovation</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường dev Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H12" s="7" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I12" s="7" t="inlineStr">
+      <c r="I12" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J12" s="7" t="inlineStr">
+      <c r="J12" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="K12" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N12" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L12" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M12" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N12" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="O12" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P12" s="7" t="inlineStr">
-        <is>
-          <t>~4h/tuần task tích hợp  4*5=20h</t>
-        </is>
-      </c>
-      <c r="Q12" s="7" t="n"/>
-      <c r="R12" s="7" t="inlineStr">
+      <c r="O12" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P12" s="8" t="inlineStr">
+        <is>
+          <t>~3h/tuần review và báo cáo chất lượng công việc cho mentor, leader và team dự án 3*4=12h</t>
+        </is>
+      </c>
+      <c r="Q12" s="8" t="n"/>
+      <c r="R12" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -1204,245 +1219,245 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo, innovation</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>Trên môi trường dev Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr">
+      <c r="H13" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr">
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="J13" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K13" s="7" t="n">
-        <v>80</v>
-      </c>
-      <c r="L13" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M13" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N13" s="7" t="n">
+      <c r="K13" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="O13" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P13" s="7" t="inlineStr">
-        <is>
-          <t>~3h/tuần review và báo cáo chất lượng công việc cho mentor, leader và team dự án 3*4=12h</t>
-        </is>
-      </c>
-      <c r="Q13" s="7" t="n"/>
-      <c r="R13" s="7" t="inlineStr">
+      <c r="L13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P13" s="8" t="inlineStr">
+        <is>
+          <t>~4h/tuần task tích hợp  4*5=20h</t>
+        </is>
+      </c>
+      <c r="Q13" s="8" t="n"/>
+      <c r="R13" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K14" s="8" t="n">
+      <c r="A14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K14" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="8" t="n">
+      <c r="M14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="8" t="n">
+      <c r="N14" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O14" s="8" t="inlineStr"/>
-      <c r="P14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R14" s="7" t="n">
+      <c r="O14" s="9" t="inlineStr"/>
+      <c r="P14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R14" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng của các sản phẩm nghiên cứu dự thi sáng tạo, innovation đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành tích hợp 100% các API của các chức năng của OKR/KPI với FE, tính %, verify automation vào Tool nhân sự mà không phát sinh vấn đề hiệu suất theo đúng timeline để ra</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong phase được giao hoàn thành đúng thời hạn (Tool nhân sự)</t>
         </is>
       </c>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="8" t="n"/>
+      <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H15" s="7" t="inlineStr">
+      <c r="H15" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I15" s="7" t="inlineStr">
+      <c r="I15" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J15" s="7" t="inlineStr">
+      <c r="J15" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L15" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M15" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N15" s="7" t="n">
+      <c r="L15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N15" s="8" t="n">
         <v>152</v>
       </c>
-      <c r="O15" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P15" s="7" t="inlineStr">
+      <c r="O15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P15" s="8" t="inlineStr">
         <is>
           <t>~2.5h/tuần viết và báo cáo tiến độ cho leader</t>
         </is>
       </c>
-      <c r="Q15" s="7" t="n"/>
-      <c r="R15" s="7" t="inlineStr">
+      <c r="Q15" s="8" t="n"/>
+      <c r="R15" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K16" s="8" t="n">
+      <c r="A16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K16" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="8" t="n">
+      <c r="M16" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="8" t="n">
+      <c r="N16" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="8" t="inlineStr"/>
-      <c r="P16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R16" s="7" t="n">
+      <c r="O16" s="9" t="inlineStr"/>
+      <c r="P16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R16" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -1510,42 +1525,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr">
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
+      <c r="I19" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -1555,17 +1570,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K19" s="5" t="inlineStr">
+      <c r="K19" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L19" s="5" t="inlineStr">
+      <c r="L19" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M19" s="5" t="inlineStr">
+      <c r="M19" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -1575,12 +1590,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O19" s="5" t="inlineStr">
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P19" s="4" t="inlineStr">
+      <c r="P19" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -1590,77 +1605,77 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="R19" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="inlineStr">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX/ Smart Routing</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX/ Smart Routing</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
+      <c r="D20" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="inlineStr">
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H20" s="7" t="inlineStr">
+      <c r="H20" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I20" s="7" t="inlineStr">
+      <c r="I20" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J20" s="7" t="inlineStr">
+      <c r="J20" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K20" s="7" t="n">
+      <c r="K20" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L20" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M20" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N20" s="7" t="n">
+      <c r="L20" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N20" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="O20" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P20" s="7" t="inlineStr">
+      <c r="O20" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P20" s="8" t="inlineStr">
         <is>
           <t>Thời gian check - fix bugs: (1h/ngày) * 19</t>
         </is>
       </c>
-      <c r="Q20" s="7" t="n"/>
-      <c r="R20" s="7" t="inlineStr">
+      <c r="Q20" s="8" t="n"/>
+      <c r="R20" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -1668,183 +1683,183 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
+      <c r="D21" s="8" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="inlineStr">
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H21" s="7" t="inlineStr">
+      <c r="H21" s="8" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I21" s="7" t="inlineStr">
+      <c r="I21" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J21" s="7" t="inlineStr">
+      <c r="J21" s="8" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="K21" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L21" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M21" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N21" s="7" t="n">
+      <c r="L21" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M21" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N21" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="O21" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P21" s="7" t="inlineStr">
+      <c r="O21" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P21" s="8" t="inlineStr">
         <is>
           <t>3h một tuần * 4</t>
         </is>
       </c>
-      <c r="Q21" s="7" t="n"/>
-      <c r="R21" s="7" t="inlineStr">
+      <c r="Q21" s="8" t="n"/>
+      <c r="R21" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K22" s="8" t="n">
+      <c r="A22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K22" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L22" s="8" t="n">
+      <c r="L22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M22" s="8" t="n">
+      <c r="M22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="8" t="n">
+      <c r="N22" s="9" t="n">
         <v>175</v>
       </c>
-      <c r="O22" s="8" t="inlineStr"/>
-      <c r="P22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R22" s="7" t="n">
+      <c r="O22" s="9" t="inlineStr"/>
+      <c r="P22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R22" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B23" s="7" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành tiếp nhận các module Oncx theo kế hoạch và các task trong smart routing</t>
         </is>
       </c>
-      <c r="D23" s="7" t="inlineStr">
+      <c r="D23" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng được hướng dẫn trong OnCX được maintain và hoàn thành 100% các task dự án Smart Routing</t>
         </is>
       </c>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="inlineStr">
+      <c r="E23" s="8" t="n"/>
+      <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H23" s="7" t="inlineStr">
+      <c r="H23" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I23" s="7" t="inlineStr">
+      <c r="I23" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J23" s="7" t="inlineStr">
+      <c r="J23" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K23" s="7" t="n">
+      <c r="K23" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L23" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M23" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N23" s="7" t="n">
+      <c r="L23" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N23" s="8" t="n">
         <v>144</v>
       </c>
-      <c r="O23" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P23" s="7" t="inlineStr">
+      <c r="O23" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P23" s="8" t="inlineStr">
         <is>
           <t>- Code tính năng 5h/ngày * 19
 - Meeting daily,clear bug:  0.5h/ngày*19
@@ -1852,64 +1867,64 @@
 - Dự tính đi làm 19/23 ngày</t>
         </is>
       </c>
-      <c r="Q23" s="7" t="n"/>
-      <c r="R23" s="7" t="inlineStr">
+      <c r="Q23" s="8" t="n"/>
+      <c r="R23" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K24" s="8" t="n">
+      <c r="A24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K24" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L24" s="8" t="n">
+      <c r="L24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M24" s="8" t="n">
+      <c r="M24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N24" s="8" t="n">
+      <c r="N24" s="9" t="n">
         <v>175</v>
       </c>
-      <c r="O24" s="8" t="inlineStr"/>
-      <c r="P24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R24" s="7" t="n">
+      <c r="O24" s="9" t="inlineStr"/>
+      <c r="P24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R24" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -1977,42 +1992,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H27" s="4" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I27" s="4" t="inlineStr">
+      <c r="I27" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -2022,17 +2037,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K27" s="5" t="inlineStr">
+      <c r="K27" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L27" s="5" t="inlineStr">
+      <c r="L27" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M27" s="5" t="inlineStr">
+      <c r="M27" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -2042,12 +2057,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O27" s="5" t="inlineStr">
+      <c r="O27" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P27" s="4" t="inlineStr">
+      <c r="P27" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -2057,77 +2072,77 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="inlineStr">
+      <c r="A28" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B28" s="7" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C28" s="7" t="inlineStr">
+      <c r="C28" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
-      <c r="D28" s="7" t="inlineStr">
+      <c r="D28" s="8" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="7" t="inlineStr">
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
+      <c r="G28" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H28" s="7" t="inlineStr">
+      <c r="H28" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I28" s="7" t="inlineStr">
+      <c r="I28" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J28" s="7" t="inlineStr">
+      <c r="J28" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K28" s="7" t="n">
+      <c r="K28" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L28" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M28" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N28" s="7" t="n">
+      <c r="L28" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M28" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N28" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="O28" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P28" s="7" t="inlineStr">
+      <c r="O28" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P28" s="8" t="inlineStr">
         <is>
           <t>Dành 2 tiếng mỗi tuần * 4 để nghiên cứu và cải tiến.</t>
         </is>
       </c>
-      <c r="Q28" s="7" t="n"/>
-      <c r="R28" s="7" t="inlineStr">
+      <c r="Q28" s="8" t="n"/>
+      <c r="R28" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -2135,247 +2150,247 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n"/>
-      <c r="B29" s="7" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
         </is>
       </c>
-      <c r="C29" s="7" t="inlineStr">
+      <c r="C29" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Smart Rotuing</t>
         </is>
       </c>
-      <c r="D29" s="7" t="inlineStr">
+      <c r="D29" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="inlineStr">
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
+      <c r="G29" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H29" s="7" t="inlineStr">
+      <c r="H29" s="8" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I29" s="7" t="inlineStr">
+      <c r="I29" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J29" s="7" t="inlineStr">
+      <c r="J29" s="8" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K29" s="7" t="n">
+      <c r="K29" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L29" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M29" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N29" s="7" t="n">
+      <c r="L29" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M29" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N29" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="O29" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P29" s="7" t="inlineStr">
+      <c r="O29" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P29" s="8" t="inlineStr">
         <is>
           <t>Dành 1 tiếng/ngày * 16.5 fix bugs.
 (Dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
         </is>
       </c>
-      <c r="Q29" s="7" t="n"/>
-      <c r="R29" s="7" t="inlineStr">
+      <c r="Q29" s="8" t="n"/>
+      <c r="R29" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K30" s="8" t="n">
+      <c r="A30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K30" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L30" s="8" t="n">
+      <c r="L30" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="8" t="n">
+      <c r="M30" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="8" t="n">
+      <c r="N30" s="9" t="n">
         <v>116</v>
       </c>
-      <c r="O30" s="8" t="inlineStr"/>
-      <c r="P30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R30" s="7" t="n">
+      <c r="O30" s="9" t="inlineStr"/>
+      <c r="P30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R30" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B31" s="7" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C31" s="7" t="inlineStr">
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng dự án Smart Routing theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D31" s="7" t="inlineStr">
+      <c r="D31" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án Smart Routing</t>
         </is>
       </c>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="inlineStr">
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
+      <c r="G31" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H31" s="7" t="inlineStr">
+      <c r="H31" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I31" s="7" t="inlineStr">
+      <c r="I31" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J31" s="7" t="inlineStr">
+      <c r="J31" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K31" s="7" t="n">
+      <c r="K31" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L31" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M31" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N31" s="7" t="n">
+      <c r="L31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N31" s="8" t="n">
         <v>91</v>
       </c>
-      <c r="O31" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P31" s="7" t="inlineStr">
+      <c r="O31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P31" s="8" t="inlineStr">
         <is>
           <t>Dành 5,5 tiếng/ngày * 16.5 làm task.
 (dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
         </is>
       </c>
-      <c r="Q31" s="7" t="n"/>
-      <c r="R31" s="7" t="inlineStr">
+      <c r="Q31" s="8" t="n"/>
+      <c r="R31" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K32" s="8" t="n">
+      <c r="A32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K32" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L32" s="8" t="n">
+      <c r="L32" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="8" t="n">
+      <c r="M32" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N32" s="8" t="n">
+      <c r="N32" s="9" t="n">
         <v>116</v>
       </c>
-      <c r="O32" s="8" t="inlineStr"/>
-      <c r="P32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R32" s="7" t="n">
+      <c r="O32" s="9" t="inlineStr"/>
+      <c r="P32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R32" s="8" t="n">
         <v/>
       </c>
     </row>
